--- a/artfynd/A 31680-2023.xlsx
+++ b/artfynd/A 31680-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111141674</v>
+        <v>111141783</v>
       </c>
       <c r="B2" t="n">
         <v>98535</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:01</t>
+          <t>13:08</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:01</t>
+          <t>13:08</t>
         </is>
       </c>
       <c r="AD2" t="b">
